--- a/Shopee 2108/Label Kabel Precon.xlsx
+++ b/Shopee 2108/Label Kabel Precon.xlsx
@@ -295,6 +295,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -302,15 +311,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -616,30 +616,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="37.7109375" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="37.7109375" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="37.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -650,7 +650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -661,21 +661,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -686,7 +686,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -697,21 +697,21 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -722,7 +722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -733,21 +733,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-    </row>
-    <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -758,7 +758,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
@@ -769,21 +769,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-    </row>
-    <row r="18" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
@@ -794,7 +794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
@@ -805,21 +805,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-    </row>
-    <row r="22" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-    </row>
-    <row r="23" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
@@ -830,7 +830,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -841,21 +841,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-    </row>
-    <row r="26" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="27" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
@@ -866,7 +866,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>4</v>
       </c>
@@ -877,21 +877,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-    </row>
-    <row r="30" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-    </row>
-    <row r="31" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+    </row>
+    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
@@ -902,7 +902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
@@ -913,21 +913,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-    </row>
-    <row r="34" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-    </row>
-    <row r="35" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>1</v>
       </c>
@@ -938,7 +938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
@@ -949,21 +949,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-    </row>
-    <row r="38" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-    </row>
-    <row r="39" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
@@ -974,7 +974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>4</v>
       </c>
@@ -987,6 +987,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A1:C1"/>
@@ -1003,10 +1007,6 @@
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="142" scale="94" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
